--- a/exports/attendance_master.xlsx
+++ b/exports/attendance_master.xlsx
@@ -413,13 +413,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -471,17 +479,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-13 20:24:36</t>
+          <t>2026-01-09 22:12:51</t>
         </is>
       </c>
     </row>
@@ -535,17 +543,465 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01-13 20:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fury@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-01-09 22:12:51</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-01-15 12:30:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fury@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-01-17 17:58:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fury@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-18 07:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fury@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-01-21 10:05:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fury@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-01-27 14:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dhruv</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dhruv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-01-18 10:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dhruv</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dhruv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-01-19 04:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dhruv</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dhruv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-01-21 09:49:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-01-10 23:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:50:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-01-12 23:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-01-13 19:28:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-01-15 19:47:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>second@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-01-17 13:30:44</t>
         </is>
       </c>
     </row>
